--- a/datasets/1b - Domestic consumption.xlsx
+++ b/datasets/1b - Domestic consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB2CB5-AD95-4335-89A1-9A40F9FEE778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B000-D842-4AED-9EF3-B42685380A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>Domestic consumption by all exporting countries</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Crop year</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>2018/19</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -328,6 +322,15 @@
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,6 +472,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -759,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A31" activeCellId="4" sqref="A5:XFD6 A21:XFD21 A22:XFD22 A30:XFD30 A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -776,29 +780,29 @@
     <col min="33" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>3</v>
@@ -876,27 +880,30 @@
         <v>27</v>
       </c>
       <c r="AB4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AD4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AE4" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="AF4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -988,13 +995,17 @@
       <c r="AF5" s="4">
         <v>30</v>
       </c>
+      <c r="AG5" s="14">
+        <f>SUM(C5:AF5)</f>
+        <v>775</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4">
         <v>25</v>
@@ -1086,13 +1097,17 @@
       <c r="AF6" s="4">
         <v>61</v>
       </c>
+      <c r="AG6" s="14">
+        <f t="shared" ref="AG6:AG61" si="0">SUM(C6:AF6)</f>
+        <v>1253</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4">
         <v>8200</v>
@@ -1184,13 +1199,17 @@
       <c r="AF7" s="4">
         <v>22000</v>
       </c>
+      <c r="AG7" s="14">
+        <f t="shared" si="0"/>
+        <v>463745</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1282,13 +1301,17 @@
       <c r="AF8" s="4">
         <v>2</v>
       </c>
+      <c r="AG8" s="14">
+        <f t="shared" si="0"/>
+        <v>56.867000000000004</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4">
         <v>350</v>
@@ -1380,13 +1403,17 @@
       <c r="AF9" s="4">
         <v>149</v>
       </c>
+      <c r="AG9" s="14">
+        <f t="shared" si="0"/>
+        <v>6359</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4">
         <v>1242</v>
@@ -1478,13 +1505,17 @@
       <c r="AF10" s="4">
         <v>4806</v>
       </c>
+      <c r="AG10" s="14">
+        <f t="shared" si="0"/>
+        <v>82008</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="4">
         <v>350</v>
@@ -1576,13 +1607,17 @@
       <c r="AF11" s="4">
         <v>375</v>
       </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="0"/>
+        <v>9811.7659999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1674,13 +1709,17 @@
       <c r="AF12" s="4">
         <v>1</v>
       </c>
+      <c r="AG12" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1772,13 +1811,17 @@
       <c r="AF13" s="4">
         <v>2</v>
       </c>
+      <c r="AG13" s="14">
+        <f t="shared" si="0"/>
+        <v>60.139999999999993</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
@@ -1870,13 +1913,17 @@
       <c r="AF14" s="4">
         <v>20</v>
       </c>
+      <c r="AG14" s="14">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4">
         <v>190</v>
@@ -1968,13 +2015,17 @@
       <c r="AF15" s="4">
         <v>250</v>
       </c>
+      <c r="AG15" s="14">
+        <f t="shared" si="0"/>
+        <v>6700</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2066,13 +2117,17 @@
       <c r="AF16" s="4">
         <v>1</v>
       </c>
+      <c r="AG16" s="14">
+        <f t="shared" si="0"/>
+        <v>35.665999999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2164,13 +2219,17 @@
       <c r="AF17" s="4">
         <v>0.49</v>
       </c>
+      <c r="AG17" s="14">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000012</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4">
         <v>8</v>
@@ -2262,13 +2321,17 @@
       <c r="AF18" s="4">
         <v>4</v>
       </c>
+      <c r="AG18" s="14">
+        <f t="shared" si="0"/>
+        <v>143.26599999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -2360,13 +2423,17 @@
       <c r="AF19" s="4">
         <v>3</v>
       </c>
+      <c r="AG19" s="14">
+        <f t="shared" si="0"/>
+        <v>89.334000000000003</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4">
         <v>213</v>
@@ -2458,13 +2525,17 @@
       <c r="AF20" s="4">
         <v>216</v>
       </c>
+      <c r="AG20" s="14">
+        <f t="shared" si="0"/>
+        <v>6400.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4">
         <v>320</v>
@@ -2556,13 +2627,17 @@
       <c r="AF21" s="4">
         <v>377</v>
       </c>
+      <c r="AG21" s="14">
+        <f t="shared" si="0"/>
+        <v>10713.722999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4">
         <v>220</v>
@@ -2654,13 +2729,17 @@
       <c r="AF22" s="4">
         <v>345</v>
       </c>
+      <c r="AG22" s="14">
+        <f t="shared" si="0"/>
+        <v>10010</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="4">
         <v>720</v>
@@ -2752,13 +2831,17 @@
       <c r="AF23" s="4">
         <v>3250</v>
       </c>
+      <c r="AG23" s="14">
+        <f t="shared" si="0"/>
+        <v>46788</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4">
         <v>4</v>
@@ -2850,13 +2933,17 @@
       <c r="AF24" s="4">
         <v>95</v>
       </c>
+      <c r="AG24" s="14">
+        <f t="shared" si="0"/>
+        <v>1273.751</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="4">
         <v>1.5</v>
@@ -2948,13 +3035,17 @@
       <c r="AF25" s="4">
         <v>0</v>
       </c>
+      <c r="AG25" s="14">
+        <f t="shared" si="0"/>
+        <v>16.531999999999996</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4">
         <v>83.3</v>
@@ -3046,13 +3137,17 @@
       <c r="AF26" s="4">
         <v>77</v>
       </c>
+      <c r="AG26" s="14">
+        <f t="shared" si="0"/>
+        <v>2390.8490000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4">
         <v>28</v>
@@ -3144,13 +3239,17 @@
       <c r="AF27" s="4">
         <v>20</v>
       </c>
+      <c r="AG27" s="14">
+        <f t="shared" si="0"/>
+        <v>413.24</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4">
         <v>1235</v>
@@ -3242,13 +3341,17 @@
       <c r="AF28" s="4">
         <v>2024.7739999999999</v>
       </c>
+      <c r="AG28" s="14">
+        <f t="shared" si="0"/>
+        <v>42279.606400000004</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4">
         <v>375</v>
@@ -3340,13 +3443,17 @@
       <c r="AF29" s="4">
         <v>352</v>
       </c>
+      <c r="AG29" s="14">
+        <f t="shared" si="0"/>
+        <v>11088.920000000002</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -3438,13 +3545,17 @@
       <c r="AF30" s="4">
         <v>317</v>
       </c>
+      <c r="AG30" s="14">
+        <f t="shared" si="0"/>
+        <v>6837.6689999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4">
         <v>200</v>
@@ -3536,13 +3647,17 @@
       <c r="AF31" s="4">
         <v>198</v>
       </c>
+      <c r="AG31" s="14">
+        <f t="shared" si="0"/>
+        <v>5998</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="4">
         <v>180</v>
@@ -3634,13 +3749,17 @@
       <c r="AF32" s="4">
         <v>292</v>
       </c>
+      <c r="AG32" s="14">
+        <f t="shared" si="0"/>
+        <v>6954.0340000000006</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -3732,13 +3851,17 @@
       <c r="AF33" s="4">
         <v>0</v>
       </c>
+      <c r="AG33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="4">
         <v>1200</v>
@@ -3830,13 +3953,17 @@
       <c r="AF34" s="4">
         <v>3781</v>
       </c>
+      <c r="AG34" s="14">
+        <f t="shared" si="0"/>
+        <v>75609</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4">
         <v>1.7</v>
@@ -3928,13 +4055,17 @@
       <c r="AF35" s="4">
         <v>0.5</v>
       </c>
+      <c r="AG35" s="14">
+        <f t="shared" si="0"/>
+        <v>18.719000000000005</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4">
         <v>17</v>
@@ -4026,13 +4157,17 @@
       <c r="AF36" s="4">
         <v>2</v>
       </c>
+      <c r="AG36" s="14">
+        <f t="shared" si="0"/>
+        <v>166.18</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="4">
         <v>300</v>
@@ -4124,13 +4259,17 @@
       <c r="AF37" s="4">
         <v>393</v>
       </c>
+      <c r="AG37" s="14">
+        <f t="shared" si="0"/>
+        <v>9848</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4">
         <v>25</v>
@@ -4222,13 +4361,17 @@
       <c r="AF38" s="4">
         <v>50</v>
       </c>
+      <c r="AG38" s="14">
+        <f t="shared" si="0"/>
+        <v>1445.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -4320,13 +4463,17 @@
       <c r="AF39" s="4">
         <v>9</v>
       </c>
+      <c r="AG39" s="14">
+        <f t="shared" si="0"/>
+        <v>153.38400000000001</v>
+      </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="4">
         <v>188.154</v>
@@ -4418,13 +4565,17 @@
       <c r="AF40" s="4">
         <v>350</v>
       </c>
+      <c r="AG40" s="14">
+        <f t="shared" si="0"/>
+        <v>7864.1779999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4">
         <v>903</v>
@@ -4516,13 +4667,17 @@
       <c r="AF41" s="4">
         <v>1450</v>
       </c>
+      <c r="AG41" s="14">
+        <f t="shared" si="0"/>
+        <v>34891</v>
+      </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4">
         <v>7</v>
@@ -4614,13 +4769,17 @@
       <c r="AF42" s="4">
         <v>9</v>
       </c>
+      <c r="AG42" s="14">
+        <f t="shared" si="0"/>
+        <v>311.46699999999998</v>
+      </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4">
         <v>50</v>
@@ -4712,13 +4871,17 @@
       <c r="AF43" s="4">
         <v>71.5</v>
       </c>
+      <c r="AG43" s="14">
+        <f t="shared" si="0"/>
+        <v>1586.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -4810,13 +4973,17 @@
       <c r="AF44" s="4">
         <v>157</v>
       </c>
+      <c r="AG44" s="14">
+        <f t="shared" si="0"/>
+        <v>2633</v>
+      </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -4908,13 +5075,17 @@
       <c r="AF45" s="4">
         <v>5</v>
       </c>
+      <c r="AG45" s="14">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="4">
         <v>1374</v>
@@ -5006,13 +5177,17 @@
       <c r="AF46" s="4">
         <v>2425</v>
       </c>
+      <c r="AG46" s="14">
+        <f t="shared" si="0"/>
+        <v>53161</v>
+      </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -5104,13 +5279,17 @@
       <c r="AF47" s="4">
         <v>0</v>
       </c>
+      <c r="AG47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="4">
         <v>34</v>
@@ -5202,13 +5381,17 @@
       <c r="AF48" s="4">
         <v>210</v>
       </c>
+      <c r="AG48" s="14">
+        <f t="shared" si="0"/>
+        <v>4995.0050000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" s="4">
         <v>27.5</v>
@@ -5300,13 +5483,17 @@
       <c r="AF49" s="4">
         <v>40</v>
       </c>
+      <c r="AG49" s="14">
+        <f t="shared" si="0"/>
+        <v>1179</v>
+      </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="4">
         <v>63</v>
@@ -5398,13 +5585,17 @@
       <c r="AF50" s="4">
         <v>67</v>
       </c>
+      <c r="AG50" s="14">
+        <f t="shared" si="0"/>
+        <v>2048.616</v>
+      </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" s="4">
         <v>9</v>
@@ -5496,13 +5687,17 @@
       <c r="AF51" s="4">
         <v>5</v>
       </c>
+      <c r="AG51" s="14">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="4">
         <v>66.667000000000002</v>
@@ -5594,13 +5789,17 @@
       <c r="AF52" s="4">
         <v>35</v>
       </c>
+      <c r="AG52" s="14">
+        <f t="shared" si="0"/>
+        <v>971.66700000000003</v>
+      </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" s="4">
         <v>188</v>
@@ -5692,13 +5891,17 @@
       <c r="AF53" s="4">
         <v>1400</v>
       </c>
+      <c r="AG53" s="14">
+        <f t="shared" si="0"/>
+        <v>20810</v>
+      </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -5790,13 +5993,17 @@
       <c r="AF54" s="5">
         <v>0.26</v>
       </c>
+      <c r="AG54" s="14">
+        <f t="shared" si="0"/>
+        <v>36.126999999999988</v>
+      </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="5">
         <v>8</v>
@@ -5888,13 +6095,17 @@
       <c r="AF55" s="5">
         <v>10</v>
       </c>
+      <c r="AG55" s="14">
+        <f t="shared" si="0"/>
+        <v>351.5</v>
+      </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" s="5">
         <v>70</v>
@@ -5986,13 +6197,17 @@
       <c r="AF56" s="5">
         <v>254</v>
       </c>
+      <c r="AG56" s="14">
+        <f t="shared" si="0"/>
+        <v>4746.9399999999996</v>
+      </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" s="5">
         <v>782.39</v>
@@ -6084,13 +6299,17 @@
       <c r="AF57" s="5">
         <v>1275</v>
       </c>
+      <c r="AG57" s="14">
+        <f t="shared" si="0"/>
+        <v>39767.800000000003</v>
+      </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C58" s="5">
         <v>150</v>
@@ -6182,13 +6401,17 @@
       <c r="AF58" s="5">
         <v>2650</v>
       </c>
+      <c r="AG58" s="14">
+        <f t="shared" si="0"/>
+        <v>32015.472000000002</v>
+      </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -6280,226 +6503,236 @@
       <c r="AF59" s="5">
         <v>64</v>
       </c>
+      <c r="AG59" s="14">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF60" s="12" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AG60" s="14"/>
     </row>
-    <row r="61" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="7">
-        <f>SUBTOTAL(9,C5:C59)</f>
+        <f t="shared" ref="C61:AF61" si="1">SUBTOTAL(9,C5:C59)</f>
         <v>19509.211000000003</v>
       </c>
       <c r="D61" s="7">
-        <f>SUBTOTAL(9,D5:D59)</f>
+        <f t="shared" si="1"/>
         <v>20228.097000000002</v>
       </c>
       <c r="E61" s="7">
-        <f>SUBTOTAL(9,E5:E59)</f>
+        <f t="shared" si="1"/>
         <v>20951.452000000001</v>
       </c>
       <c r="F61" s="7">
-        <f>SUBTOTAL(9,F5:F59)</f>
+        <f t="shared" si="1"/>
         <v>21097.905999999999</v>
       </c>
       <c r="G61" s="7">
-        <f>SUBTOTAL(9,G5:G59)</f>
+        <f t="shared" si="1"/>
         <v>21360.166000000001</v>
       </c>
       <c r="H61" s="7">
-        <f>SUBTOTAL(9,H5:H59)</f>
+        <f t="shared" si="1"/>
         <v>22602.572000000004</v>
       </c>
       <c r="I61" s="7">
-        <f>SUBTOTAL(9,I5:I59)</f>
+        <f t="shared" si="1"/>
         <v>23512.589999999997</v>
       </c>
       <c r="J61" s="7">
-        <f>SUBTOTAL(9,J5:J59)</f>
+        <f t="shared" si="1"/>
         <v>24271.040000000001</v>
       </c>
       <c r="K61" s="7">
-        <f>SUBTOTAL(9,K5:K59)</f>
+        <f t="shared" si="1"/>
         <v>25116.592999999997</v>
       </c>
       <c r="L61" s="7">
-        <f>SUBTOTAL(9,L5:L59)</f>
+        <f t="shared" si="1"/>
         <v>25741.204999999994</v>
       </c>
       <c r="M61" s="7">
-        <f>SUBTOTAL(9,M5:M59)</f>
+        <f t="shared" si="1"/>
         <v>27068.162</v>
       </c>
       <c r="N61" s="7">
-        <f>SUBTOTAL(9,N5:N59)</f>
+        <f t="shared" si="1"/>
         <v>28308.99</v>
       </c>
       <c r="O61" s="7">
-        <f>SUBTOTAL(9,O5:O59)</f>
+        <f t="shared" si="1"/>
         <v>28751.770999999997</v>
       </c>
       <c r="P61" s="7">
-        <f>SUBTOTAL(9,P5:P59)</f>
+        <f t="shared" si="1"/>
         <v>29832.678</v>
       </c>
       <c r="Q61" s="7">
-        <f>SUBTOTAL(9,Q5:Q59)</f>
+        <f t="shared" si="1"/>
         <v>31413.178999999996</v>
       </c>
       <c r="R61" s="7">
-        <f>SUBTOTAL(9,R5:R59)</f>
+        <f t="shared" si="1"/>
         <v>33142.979999999996</v>
       </c>
       <c r="S61" s="7">
-        <f>SUBTOTAL(9,S5:S59)</f>
+        <f t="shared" si="1"/>
         <v>34973.57</v>
       </c>
       <c r="T61" s="7">
-        <f>SUBTOTAL(9,T5:T59)</f>
+        <f t="shared" si="1"/>
         <v>36911.137999999999</v>
       </c>
       <c r="U61" s="7">
-        <f>SUBTOTAL(9,U5:U59)</f>
+        <f t="shared" si="1"/>
         <v>38402.576000000001</v>
       </c>
       <c r="V61" s="7">
-        <f>SUBTOTAL(9,V5:V59)</f>
+        <f t="shared" si="1"/>
         <v>39699.423999999999</v>
       </c>
       <c r="W61" s="7">
-        <f>SUBTOTAL(9,W5:W59)</f>
+        <f t="shared" si="1"/>
         <v>41646.19000000001</v>
       </c>
       <c r="X61" s="7">
-        <f>SUBTOTAL(9,X5:X59)</f>
+        <f t="shared" si="1"/>
         <v>43192.481999999996</v>
       </c>
       <c r="Y61" s="7">
-        <f>SUBTOTAL(9,Y5:Y59)</f>
+        <f t="shared" si="1"/>
         <v>44652.512999999999</v>
       </c>
       <c r="Z61" s="7">
-        <f>SUBTOTAL(9,Z5:Z59)</f>
+        <f t="shared" si="1"/>
         <v>45323.874000000011</v>
       </c>
       <c r="AA61" s="7">
-        <f>SUBTOTAL(9,AA5:AA59)</f>
+        <f t="shared" si="1"/>
         <v>46473.695</v>
       </c>
       <c r="AB61" s="7">
-        <f>SUBTOTAL(9,AB5:AB59)</f>
+        <f t="shared" si="1"/>
         <v>47349.200000000004</v>
       </c>
       <c r="AC61" s="7">
-        <f>SUBTOTAL(9,AC5:AC59)</f>
+        <f t="shared" si="1"/>
         <v>48334.170400000003</v>
       </c>
       <c r="AD61" s="7">
-        <f>SUBTOTAL(9,AD5:AD59)</f>
+        <f t="shared" si="1"/>
         <v>49685.816000000006</v>
       </c>
       <c r="AE61" s="7">
-        <f>SUBTOTAL(9,AE5:AE59)</f>
+        <f t="shared" si="1"/>
         <v>50244.654000000002</v>
       </c>
       <c r="AF61" s="7">
-        <f>SUBTOTAL(9,AF5:AF59)</f>
+        <f t="shared" si="1"/>
         <v>49981.524000000005</v>
       </c>
+      <c r="AG61" s="14">
+        <f t="shared" si="0"/>
+        <v>1019779.4184000001</v>
+      </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="AG62" s="14"/>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>

--- a/datasets/1b - Domestic consumption.xlsx
+++ b/datasets/1b - Domestic consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B000-D842-4AED-9EF3-B42685380A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F0B5B-5851-49D7-8E7F-048F46F7E4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Print Table here" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,6 @@
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -766,10 +766,10 @@
   <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -799,10 +799,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>3</v>
@@ -892,10 +892,10 @@
         <v>82</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4">
         <v>25</v>
@@ -1107,7 +1107,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4">
         <v>8200</v>
@@ -1209,7 +1209,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1311,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4">
         <v>350</v>
@@ -1413,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4">
         <v>1242</v>
@@ -1515,7 +1515,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4">
         <v>350</v>
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
@@ -1923,7 +1923,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4">
         <v>190</v>
@@ -2025,7 +2025,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4">
         <v>8</v>
@@ -2331,7 +2331,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -2433,7 +2433,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4">
         <v>213</v>
@@ -2535,7 +2535,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4">
         <v>320</v>
@@ -2637,7 +2637,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4">
         <v>220</v>
@@ -2739,7 +2739,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="4">
         <v>720</v>
@@ -2841,7 +2841,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4">
         <v>4</v>
@@ -2943,7 +2943,7 @@
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4">
         <v>1.5</v>
@@ -3045,7 +3045,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4">
         <v>83.3</v>
@@ -3147,7 +3147,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4">
         <v>28</v>
@@ -3249,7 +3249,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4">
         <v>1235</v>
@@ -3351,7 +3351,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="4">
         <v>375</v>
@@ -3453,7 +3453,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -3555,7 +3555,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4">
         <v>200</v>
@@ -3657,7 +3657,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4">
         <v>180</v>
@@ -3759,7 +3759,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4">
         <v>1200</v>
@@ -3963,7 +3963,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4">
         <v>1.7</v>
@@ -4065,7 +4065,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4">
         <v>17</v>
@@ -4167,7 +4167,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4">
         <v>300</v>
@@ -4269,7 +4269,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4">
         <v>25</v>
@@ -4371,7 +4371,7 @@
         <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4">
         <v>188.154</v>
@@ -4575,7 +4575,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4">
         <v>903</v>
@@ -4677,7 +4677,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4">
         <v>7</v>
@@ -4779,7 +4779,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4">
         <v>50</v>
@@ -4881,7 +4881,7 @@
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -5085,7 +5085,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4">
         <v>1374</v>
@@ -5187,7 +5187,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="4">
         <v>34</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4">
         <v>27.5</v>
@@ -5493,7 +5493,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4">
         <v>63</v>
@@ -5595,7 +5595,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="4">
         <v>9</v>
@@ -5697,7 +5697,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="4">
         <v>66.667000000000002</v>
@@ -5799,7 +5799,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="4">
         <v>188</v>
@@ -5901,7 +5901,7 @@
         <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -6003,7 +6003,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="5">
         <v>8</v>
@@ -6105,7 +6105,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="5">
         <v>70</v>
@@ -6207,7 +6207,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="5">
         <v>782.39</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="5">
         <v>150</v>
@@ -6411,7 +6411,7 @@
         <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -6510,91 +6510,91 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG60" s="14"/>
     </row>

--- a/datasets/1b - Domestic consumption.xlsx
+++ b/datasets/1b - Domestic consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F0B5B-5851-49D7-8E7F-048F46F7E4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DABB3-C5D7-4789-A27A-26B12BBBAA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,81 +54,6 @@
     <t>© International Coffee Organization</t>
   </si>
   <si>
-    <t>1990/91</t>
-  </si>
-  <si>
-    <t>1991/92</t>
-  </si>
-  <si>
-    <t>1992/93</t>
-  </si>
-  <si>
-    <t>1993/94</t>
-  </si>
-  <si>
-    <t>1994/95</t>
-  </si>
-  <si>
-    <t>1995/96</t>
-  </si>
-  <si>
-    <t>1996/97</t>
-  </si>
-  <si>
-    <t>1997/98</t>
-  </si>
-  <si>
-    <t>1998/99</t>
-  </si>
-  <si>
-    <t>1999/00</t>
-  </si>
-  <si>
-    <t>2000/01</t>
-  </si>
-  <si>
-    <t>2001/02</t>
-  </si>
-  <si>
-    <t>2002/03</t>
-  </si>
-  <si>
-    <t>2003/04</t>
-  </si>
-  <si>
-    <t>2004/05</t>
-  </si>
-  <si>
-    <t>2005/06</t>
-  </si>
-  <si>
-    <t>2006/07</t>
-  </si>
-  <si>
-    <t>2007/08</t>
-  </si>
-  <si>
-    <t>2008/09</t>
-  </si>
-  <si>
-    <t>2009/10</t>
-  </si>
-  <si>
-    <t>2010/11</t>
-  </si>
-  <si>
-    <t>2011/12</t>
-  </si>
-  <si>
-    <t>2012/13</t>
-  </si>
-  <si>
-    <t>2013/14</t>
-  </si>
-  <si>
-    <t>2014/15</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -282,18 +207,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>2015/16</t>
-  </si>
-  <si>
-    <t>2016/17</t>
-  </si>
-  <si>
-    <t>2017/18</t>
-  </si>
-  <si>
-    <t>2018/19</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -306,9 +219,6 @@
     <t/>
   </si>
   <si>
-    <t>2019/20</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -331,6 +241,96 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,6 +473,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -766,10 +769,10 @@
   <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -799,111 +802,111 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>87</v>
+      <c r="AE4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -1002,10 +1005,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4">
         <v>25</v>
@@ -1104,10 +1107,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4">
         <v>8200</v>
@@ -1206,10 +1209,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1308,10 +1311,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
         <v>350</v>
@@ -1410,10 +1413,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
         <v>1242</v>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4">
         <v>350</v>
@@ -1614,10 +1617,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1716,10 +1719,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1818,10 +1821,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
@@ -1920,10 +1923,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4">
         <v>190</v>
@@ -2022,10 +2025,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2124,10 +2127,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2226,10 +2229,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4">
         <v>8</v>
@@ -2328,10 +2331,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -2430,10 +2433,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4">
         <v>213</v>
@@ -2532,10 +2535,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4">
         <v>320</v>
@@ -2634,10 +2637,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <v>220</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4">
         <v>720</v>
@@ -2838,10 +2841,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4">
         <v>4</v>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4">
         <v>1.5</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4">
         <v>83.3</v>
@@ -3144,10 +3147,10 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4">
         <v>28</v>
@@ -3246,10 +3249,10 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4">
         <v>1235</v>
@@ -3348,10 +3351,10 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4">
         <v>375</v>
@@ -3450,10 +3453,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -3552,10 +3555,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4">
         <v>200</v>
@@ -3654,10 +3657,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4">
         <v>180</v>
@@ -3756,10 +3759,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -3858,10 +3861,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C34" s="4">
         <v>1200</v>
@@ -3960,10 +3963,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4">
         <v>1.7</v>
@@ -4062,10 +4065,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4">
         <v>17</v>
@@ -4164,10 +4167,10 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C37" s="4">
         <v>300</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4">
         <v>25</v>
@@ -4368,10 +4371,10 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -4470,10 +4473,10 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4">
         <v>188.154</v>
@@ -4572,10 +4575,10 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C41" s="4">
         <v>903</v>
@@ -4674,10 +4677,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C42" s="4">
         <v>7</v>
@@ -4776,10 +4779,10 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C43" s="4">
         <v>50</v>
@@ -4878,10 +4881,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -4980,10 +4983,10 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4">
         <v>1374</v>
@@ -5184,10 +5187,10 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -5286,10 +5289,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C48" s="4">
         <v>34</v>
@@ -5388,10 +5391,10 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C49" s="4">
         <v>27.5</v>
@@ -5490,10 +5493,10 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4">
         <v>63</v>
@@ -5592,10 +5595,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C51" s="4">
         <v>9</v>
@@ -5694,10 +5697,10 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C52" s="4">
         <v>66.667000000000002</v>
@@ -5796,10 +5799,10 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4">
         <v>188</v>
@@ -5898,10 +5901,10 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5">
         <v>8</v>
@@ -6102,10 +6105,10 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C56" s="5">
         <v>70</v>
@@ -6204,10 +6207,10 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C57" s="5">
         <v>782.39</v>
@@ -6306,10 +6309,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C58" s="5">
         <v>150</v>
@@ -6408,10 +6411,10 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -6510,97 +6513,97 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AF60" s="12" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG60" s="14"/>
     </row>
     <row r="61" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="7">

--- a/datasets/1b - Domestic consumption.xlsx
+++ b/datasets/1b - Domestic consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DABB3-C5D7-4789-A27A-26B12BBBAA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF83EC6-36DA-4E87-87C5-EA4F0D00FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>Democratic Republic of Congo</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:AF4"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -802,103 +802,103 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AF4" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="AG4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4">
         <v>25</v>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <v>8200</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <v>350</v>
@@ -1416,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4">
         <v>1242</v>
@@ -1518,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4">
         <v>350</v>
@@ -1620,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1824,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
@@ -1926,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4">
         <v>190</v>
@@ -2028,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4">
         <v>8</v>
@@ -2334,7 +2334,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -2436,7 +2436,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4">
         <v>213</v>
@@ -2538,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4">
         <v>320</v>
@@ -2640,7 +2640,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4">
         <v>220</v>
@@ -2742,7 +2742,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4">
         <v>720</v>
@@ -2844,7 +2844,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4">
         <v>4</v>
@@ -2946,7 +2946,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4">
         <v>1.5</v>
@@ -3048,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4">
         <v>83.3</v>
@@ -3150,7 +3150,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4">
         <v>28</v>
@@ -3252,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4">
         <v>1235</v>
@@ -3354,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4">
         <v>375</v>
@@ -3456,7 +3456,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -3558,7 +3558,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4">
         <v>200</v>
@@ -3660,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4">
         <v>180</v>
@@ -3762,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4">
         <v>1200</v>
@@ -3966,7 +3966,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4">
         <v>1.7</v>
@@ -4068,7 +4068,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4">
         <v>17</v>
@@ -4170,7 +4170,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4">
         <v>300</v>
@@ -4272,7 +4272,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>25</v>
@@ -4374,7 +4374,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4">
         <v>188.154</v>
@@ -4578,7 +4578,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4">
         <v>903</v>
@@ -4680,7 +4680,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4">
         <v>7</v>
@@ -4782,7 +4782,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4">
         <v>50</v>
@@ -4881,10 +4881,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -5088,7 +5088,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4">
         <v>1374</v>
@@ -5190,7 +5190,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="4">
         <v>34</v>
@@ -5394,7 +5394,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4">
         <v>27.5</v>
@@ -5496,7 +5496,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="4">
         <v>63</v>
@@ -5598,7 +5598,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4">
         <v>9</v>
@@ -5700,7 +5700,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4">
         <v>66.667000000000002</v>
@@ -5802,7 +5802,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4">
         <v>188</v>
@@ -5904,7 +5904,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5">
         <v>8</v>
@@ -6108,7 +6108,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="5">
         <v>70</v>
@@ -6210,7 +6210,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="5">
         <v>782.39</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5">
         <v>150</v>
@@ -6414,7 +6414,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -6513,91 +6513,91 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF60" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG60" s="14"/>
     </row>
